--- a/data_cleaning/Schema_colors.xlsx
+++ b/data_cleaning/Schema_colors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="236">
   <si>
     <t>Fuel</t>
   </si>
@@ -466,9 +466,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fuel Production </t>
-  </si>
-  <si>
-    <t>Feedstock</t>
   </si>
   <si>
     <t>Storage</t>
@@ -1102,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1156,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -1336,7 +1333,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1358,7 +1355,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
@@ -1369,7 +1366,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>48</v>
@@ -1460,7 +1457,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -1471,7 +1468,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -1482,7 +1479,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
         <v>45</v>
@@ -1493,7 +1490,7 @@
         <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
@@ -1504,7 +1501,7 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
@@ -1515,7 +1512,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
         <v>45</v>
@@ -1526,7 +1523,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
@@ -1537,7 +1534,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
         <v>45</v>
@@ -1548,7 +1545,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>44</v>
@@ -1559,7 +1556,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
@@ -1570,7 +1567,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -1581,7 +1578,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -1592,7 +1589,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
@@ -1603,7 +1600,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -1614,7 +1611,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
@@ -1625,7 +1622,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
@@ -1636,7 +1633,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
         <v>44</v>
@@ -1647,7 +1644,7 @@
         <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
         <v>44</v>
@@ -1658,7 +1655,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
         <v>45</v>
@@ -1669,7 +1666,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
         <v>45</v>
@@ -1680,7 +1677,7 @@
         <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
         <v>45</v>
@@ -1691,7 +1688,7 @@
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
         <v>45</v>
@@ -1702,7 +1699,7 @@
         <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -1713,7 +1710,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -1724,7 +1721,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -1735,7 +1732,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -1746,7 +1743,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -1757,7 +1754,7 @@
         <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
         <v>45</v>
@@ -1768,7 +1765,7 @@
         <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
         <v>44</v>
@@ -1779,7 +1776,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
         <v>45</v>
@@ -1790,7 +1787,7 @@
         <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
         <v>44</v>
@@ -1801,7 +1798,7 @@
         <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
         <v>44</v>
@@ -1812,7 +1809,7 @@
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
         <v>44</v>
@@ -1823,7 +1820,7 @@
         <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
         <v>45</v>
@@ -1834,7 +1831,7 @@
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
@@ -1845,7 +1842,7 @@
         <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
         <v>44</v>
@@ -1856,7 +1853,7 @@
         <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
         <v>45</v>
@@ -1878,7 +1875,7 @@
         <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
         <v>45</v>
@@ -1889,7 +1886,7 @@
         <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
         <v>44</v>
@@ -1900,7 +1897,7 @@
         <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" t="s">
         <v>45</v>
@@ -1911,7 +1908,7 @@
         <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
         <v>44</v>
@@ -1922,7 +1919,7 @@
         <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
         <v>44</v>
@@ -1933,7 +1930,7 @@
         <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C75" t="s">
         <v>45</v>
@@ -1944,7 +1941,7 @@
         <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
         <v>45</v>
@@ -1955,7 +1952,7 @@
         <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
         <v>42</v>
@@ -1966,7 +1963,7 @@
         <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" t="s">
         <v>44</v>
@@ -1977,7 +1974,7 @@
         <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
         <v>45</v>
@@ -1988,7 +1985,7 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80" t="s">
         <v>45</v>
@@ -1999,7 +1996,7 @@
         <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C81" t="s">
         <v>45</v>
@@ -2010,7 +2007,7 @@
         <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
         <v>42</v>
@@ -2021,7 +2018,7 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
         <v>42</v>
@@ -2032,7 +2029,7 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
         <v>43</v>
@@ -2043,7 +2040,7 @@
         <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
         <v>43</v>
@@ -2054,7 +2051,7 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
         <v>43</v>
@@ -2065,7 +2062,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" t="s">
         <v>43</v>
@@ -2076,7 +2073,7 @@
         <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" t="s">
         <v>43</v>
@@ -2087,7 +2084,7 @@
         <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" t="s">
         <v>43</v>
@@ -2098,7 +2095,7 @@
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
         <v>43</v>
@@ -2109,7 +2106,7 @@
         <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91" t="s">
         <v>43</v>
@@ -2120,7 +2117,7 @@
         <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C92" t="s">
         <v>43</v>
@@ -2131,7 +2128,7 @@
         <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
         <v>43</v>
@@ -2142,7 +2139,7 @@
         <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
@@ -2153,7 +2150,7 @@
         <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C95" t="s">
         <v>43</v>
@@ -2164,7 +2161,7 @@
         <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" t="s">
         <v>43</v>
@@ -2175,7 +2172,7 @@
         <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
         <v>43</v>
@@ -2186,7 +2183,7 @@
         <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" t="s">
         <v>43</v>
@@ -2197,7 +2194,7 @@
         <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s">
         <v>43</v>
@@ -2208,7 +2205,7 @@
         <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C100" t="s">
         <v>43</v>
@@ -2219,7 +2216,7 @@
         <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C101" t="s">
         <v>43</v>
@@ -2230,7 +2227,7 @@
         <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102" t="s">
         <v>43</v>
@@ -2241,7 +2238,7 @@
         <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C103" t="s">
         <v>43</v>
@@ -2252,7 +2249,7 @@
         <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C104" t="s">
         <v>45</v>
@@ -2263,7 +2260,7 @@
         <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C105" t="s">
         <v>45</v>
@@ -2274,7 +2271,7 @@
         <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
         <v>45</v>
@@ -2285,7 +2282,7 @@
         <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C107" t="s">
         <v>45</v>
@@ -2296,7 +2293,7 @@
         <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C108" t="s">
         <v>45</v>
@@ -2307,7 +2304,7 @@
         <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s">
         <v>45</v>
@@ -2318,7 +2315,7 @@
         <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C110" t="s">
         <v>45</v>
@@ -2329,7 +2326,7 @@
         <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
         <v>45</v>
@@ -2351,7 +2348,7 @@
         <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C113" t="s">
         <v>44</v>
@@ -2362,7 +2359,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
         <v>44</v>
@@ -2384,7 +2381,7 @@
         <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C116" t="s">
         <v>44</v>
@@ -2406,7 +2403,7 @@
         <v>141</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C118" t="s">
         <v>43</v>
@@ -2428,7 +2425,7 @@
         <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C120" t="s">
         <v>43</v>
@@ -2439,7 +2436,7 @@
         <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
         <v>45</v>
@@ -2450,7 +2447,7 @@
         <v>145</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C122" t="s">
         <v>44</v>
@@ -2461,7 +2458,7 @@
         <v>146</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s">
         <v>42</v>
@@ -2472,7 +2469,7 @@
         <v>147</v>
       </c>
       <c r="B124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
         <v>43</v>
@@ -2483,7 +2480,7 @@
         <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C125" t="s">
         <v>42</v>
@@ -2494,20 +2491,9 @@
         <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>150</v>
-      </c>
-      <c r="B127" t="s">
-        <v>225</v>
-      </c>
-      <c r="C127" t="s">
         <v>43</v>
       </c>
     </row>
